--- a/medicine/Pharmacie/Sun_Pharmaceutical/Sun_Pharmaceutical.xlsx
+++ b/medicine/Pharmacie/Sun_Pharmaceutical/Sun_Pharmaceutical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sun Pharmaceutical est une entreprise pharmaceutique indienne, basée à Bombay.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2014, Sun Pharmaceutical acquiert Ranbaxy pour 3,2 milliards de dollars, détenu auparavant par Daiichi Sankyo à 63,9 %, créant la plus grande entreprise pharmaceutique indienne[1].
-En avril 2015, Daiichi Sankyo vend pour 3,6 milliards de dollars, sa participation de 8,9 % dans Sun Pharmaceutical, qu'il détenait à la suite du rachat de Ranbaxy par Sun Pharmaceutical[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2014, Sun Pharmaceutical acquiert Ranbaxy pour 3,2 milliards de dollars, détenu auparavant par Daiichi Sankyo à 63,9 %, créant la plus grande entreprise pharmaceutique indienne.
+En avril 2015, Daiichi Sankyo vend pour 3,6 milliards de dollars, sa participation de 8,9 % dans Sun Pharmaceutical, qu'il détenait à la suite du rachat de Ranbaxy par Sun Pharmaceutical.
 </t>
         </is>
       </c>
